--- a/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.70556292816309</v>
+        <v>3.797876584759479</v>
       </c>
       <c r="C2">
-        <v>1.169526854506728</v>
+        <v>1.042423977236496</v>
       </c>
       <c r="D2">
-        <v>0.03951410747612272</v>
+        <v>0.03327405477550727</v>
       </c>
       <c r="E2">
-        <v>0.2445371973312689</v>
+        <v>1.462836816941461</v>
       </c>
       <c r="F2">
-        <v>2.538287125235712</v>
+        <v>2.432284390844075</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.310591998168462</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.09670021485195</v>
       </c>
       <c r="L2">
-        <v>0.5575669759542095</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.9828545794327965</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.188501984143727</v>
+        <v>3.258845304857402</v>
       </c>
       <c r="C3">
-        <v>1.004674384580738</v>
+        <v>0.8929074833145876</v>
       </c>
       <c r="D3">
-        <v>0.03774833062042049</v>
+        <v>0.03215595331025511</v>
       </c>
       <c r="E3">
-        <v>0.2095991595330702</v>
+        <v>1.243872212602</v>
       </c>
       <c r="F3">
-        <v>2.231531346294275</v>
+        <v>2.138104733882571</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.175090125335785</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9402031433980511</v>
       </c>
       <c r="L3">
-        <v>0.4776886672541707</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.9900694412299913</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.876421936968256</v>
+        <v>2.935461081733024</v>
       </c>
       <c r="C4">
-        <v>0.9053863106250901</v>
+        <v>0.8032424087722063</v>
       </c>
       <c r="D4">
-        <v>0.03683321993082345</v>
+        <v>0.03163384736199504</v>
       </c>
       <c r="E4">
-        <v>0.1887480019983769</v>
+        <v>1.113962551456808</v>
       </c>
       <c r="F4">
-        <v>2.050204077582976</v>
+        <v>1.964499636604046</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.095805307944957</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8463212695163094</v>
       </c>
       <c r="L4">
-        <v>0.4298326190397788</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.9969030756824679</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.750379289898547</v>
+        <v>2.805281975489436</v>
       </c>
       <c r="C5">
-        <v>0.8653293751279136</v>
+        <v>0.767148947972089</v>
       </c>
       <c r="D5">
-        <v>0.0364978775667808</v>
+        <v>0.03145713389826099</v>
       </c>
       <c r="E5">
-        <v>0.1803793962979299</v>
+        <v>1.061967029648599</v>
       </c>
       <c r="F5">
-        <v>1.977854359958215</v>
+        <v>1.89528492559441</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.064363262339867</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8085284736767733</v>
       </c>
       <c r="L5">
-        <v>0.4105832540405387</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.000236455473697</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.729512289639331</v>
+        <v>2.783754403641865</v>
       </c>
       <c r="C6">
-        <v>0.8587001063723392</v>
+        <v>0.7611801016561515</v>
       </c>
       <c r="D6">
-        <v>0.03644432957962707</v>
+        <v>0.03142982691489493</v>
       </c>
       <c r="E6">
-        <v>0.1789969345085396</v>
+        <v>1.053384960867888</v>
       </c>
       <c r="F6">
-        <v>1.965927827818774</v>
+        <v>1.883877975967039</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.059191516005228</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8022786426467405</v>
       </c>
       <c r="L6">
-        <v>0.4074008827277922</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.00082158847529</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.87471777580015</v>
+        <v>2.933699328164153</v>
       </c>
       <c r="C7">
-        <v>0.9048445559705556</v>
+        <v>0.8027539482375801</v>
       </c>
       <c r="D7">
-        <v>0.03682855138140084</v>
+        <v>0.03163132465035545</v>
       </c>
       <c r="E7">
-        <v>0.1886346483259658</v>
+        <v>1.113257741239579</v>
       </c>
       <c r="F7">
-        <v>2.049222376073459</v>
+        <v>1.963560275457155</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.095377904282373</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8458098122528668</v>
       </c>
       <c r="L7">
-        <v>0.4295720516657227</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.9969458784285621</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.526016764987617</v>
+        <v>3.61024962031388</v>
       </c>
       <c r="C8">
-        <v>1.112232379454383</v>
+        <v>0.9903676864483657</v>
       </c>
       <c r="D8">
-        <v>0.03886701137017212</v>
+        <v>0.03285098003789244</v>
       </c>
       <c r="E8">
-        <v>0.2323513471878229</v>
+        <v>1.386269056108617</v>
       </c>
       <c r="F8">
-        <v>2.430918328969497</v>
+        <v>2.329243075206804</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.262984184235705</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.042223773811486</v>
       </c>
       <c r="L8">
-        <v>0.5297482019996735</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.9848076028228121</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.857698198012827</v>
+        <v>5.013159696513867</v>
       </c>
       <c r="C9">
-        <v>1.538511554028219</v>
+        <v>1.380121838471553</v>
       </c>
       <c r="D9">
-        <v>0.04446434883455908</v>
+        <v>0.03683328869460212</v>
       </c>
       <c r="E9">
-        <v>0.3240282306192555</v>
+        <v>1.96826765736472</v>
       </c>
       <c r="F9">
-        <v>3.246650183224574</v>
+        <v>3.114432174315994</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.62874657989282</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.449678832278494</v>
       </c>
       <c r="L9">
-        <v>0.7380621591189751</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.983010209842206</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.888397214521262</v>
+        <v>6.117200437064014</v>
       </c>
       <c r="C10">
-        <v>1.870640593935263</v>
+        <v>1.688026012374507</v>
       </c>
       <c r="D10">
-        <v>0.04998039861253289</v>
+        <v>0.04122416099230719</v>
       </c>
       <c r="E10">
-        <v>0.3969521730418961</v>
+        <v>2.44273837728116</v>
       </c>
       <c r="F10">
-        <v>3.905722252540585</v>
+        <v>3.753533305055555</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.929913809541148</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.770634612551021</v>
       </c>
       <c r="L10">
-        <v>0.902341195534305</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.000020460226096</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.373912816555503</v>
+        <v>6.643078217374693</v>
       </c>
       <c r="C11">
-        <v>2.027785505610325</v>
+        <v>1.835164654871051</v>
       </c>
       <c r="D11">
-        <v>0.05291542804179272</v>
+        <v>0.04368852977979287</v>
       </c>
       <c r="E11">
-        <v>0.4318771208949386</v>
+        <v>2.674318841597923</v>
       </c>
       <c r="F11">
-        <v>4.223690129133018</v>
+        <v>4.063725427617811</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.07667254851188</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.923638019564805</v>
       </c>
       <c r="L11">
-        <v>0.9806244503111117</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.013152574539376</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.56069829395733</v>
+        <v>6.846436631972722</v>
       </c>
       <c r="C12">
-        <v>2.088362914777804</v>
+        <v>1.892156287681644</v>
       </c>
       <c r="D12">
-        <v>0.0541007653537946</v>
+        <v>0.04470541991477006</v>
       </c>
       <c r="E12">
-        <v>0.4454101821167029</v>
+        <v>2.764895790012716</v>
       </c>
       <c r="F12">
-        <v>4.347236603599612</v>
+        <v>4.184620408523529</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.133927094761248</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.982829390805151</v>
       </c>
       <c r="L12">
-        <v>1.010893784115737</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.019052790283823</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.520330656327758</v>
+        <v>6.802436961902174</v>
       </c>
       <c r="C13">
-        <v>2.075265307587756</v>
+        <v>1.879820730757217</v>
       </c>
       <c r="D13">
-        <v>0.0538419640704717</v>
+        <v>0.04448238126682469</v>
       </c>
       <c r="E13">
-        <v>0.4424808978170489</v>
+        <v>2.745248543802347</v>
       </c>
       <c r="F13">
-        <v>4.320479544640563</v>
+        <v>4.158419197807973</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.121516587454749</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.970021234886744</v>
       </c>
       <c r="L13">
-        <v>1.004344870421676</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.017738029708354</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.389217576201986</v>
+        <v>6.65971868859458</v>
       </c>
       <c r="C14">
-        <v>2.032746522104105</v>
+        <v>1.839826180059447</v>
       </c>
       <c r="D14">
-        <v>0.0530113831429162</v>
+        <v>0.04377040226836471</v>
       </c>
       <c r="E14">
-        <v>0.4329839664610375</v>
+        <v>2.681708747343436</v>
       </c>
       <c r="F14">
-        <v>4.233788074309132</v>
+        <v>4.0735985971057</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.081347463133781</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.928481017675352</v>
       </c>
       <c r="L14">
-        <v>0.9831014612238391</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.013618407907884</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.309306465588634</v>
+        <v>6.572876725004733</v>
       </c>
       <c r="C15">
-        <v>2.006848451297003</v>
+        <v>1.815502854503961</v>
       </c>
       <c r="D15">
-        <v>0.05251267441097696</v>
+        <v>0.04334575829016529</v>
       </c>
       <c r="E15">
-        <v>0.4272087462220711</v>
+        <v>2.643185372898799</v>
       </c>
       <c r="F15">
-        <v>4.181113227833293</v>
+        <v>4.022111748422617</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.056970653775409</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.903207790113242</v>
       </c>
       <c r="L15">
-        <v>0.9701744534284842</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.011220890559585</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.857046288122376</v>
+        <v>6.08337484728122</v>
       </c>
       <c r="C16">
-        <v>1.860508860105142</v>
+        <v>1.678573052045749</v>
       </c>
       <c r="D16">
-        <v>0.04979818097414324</v>
+        <v>0.04107382398872517</v>
       </c>
       <c r="E16">
-        <v>0.3947095231576725</v>
+        <v>2.427970089949909</v>
       </c>
       <c r="F16">
-        <v>3.885350561995409</v>
+        <v>3.73370410970773</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.920541642752909</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.76079609010192</v>
       </c>
       <c r="L16">
-        <v>0.8973059593644308</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.9992829925136846</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.584214827458197</v>
+        <v>5.789665427330647</v>
       </c>
       <c r="C17">
-        <v>1.772415914339149</v>
+        <v>1.596546940206224</v>
       </c>
       <c r="D17">
-        <v>0.04825021637883253</v>
+        <v>0.03981016307572105</v>
       </c>
       <c r="E17">
-        <v>0.3752573772769949</v>
+        <v>2.300366238555185</v>
       </c>
       <c r="F17">
-        <v>3.708905434131054</v>
+        <v>3.562168101593926</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.839527312063794</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.675381993103201</v>
       </c>
       <c r="L17">
-        <v>0.8535879633683123</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.9934387287044757</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.428818706640982</v>
+        <v>5.622898696317804</v>
       </c>
       <c r="C18">
-        <v>1.722303484154565</v>
+        <v>1.550014948782803</v>
       </c>
       <c r="D18">
-        <v>0.04739904888048585</v>
+        <v>0.03912608881533686</v>
       </c>
       <c r="E18">
-        <v>0.3642299653653112</v>
+        <v>2.228408508320868</v>
       </c>
       <c r="F18">
-        <v>3.609090700131986</v>
+        <v>3.465291900031559</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.793829021826113</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.626895327714294</v>
       </c>
       <c r="L18">
-        <v>0.8287688537124467</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.9905741747813579</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.37645210981924</v>
+        <v>5.566784446292502</v>
       </c>
       <c r="C19">
-        <v>1.705426355344514</v>
+        <v>1.534364295704393</v>
       </c>
       <c r="D19">
-        <v>0.04711724170763887</v>
+        <v>0.03890137742247646</v>
       </c>
       <c r="E19">
-        <v>0.3605223843506309</v>
+        <v>2.204275262894001</v>
       </c>
       <c r="F19">
-        <v>3.575567729106297</v>
+        <v>3.432781081935815</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.778503138027887</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.610582091665336</v>
       </c>
       <c r="L19">
-        <v>0.8204184373859817</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.9896855424708235</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.613096343803022</v>
+        <v>5.820701639670688</v>
       </c>
       <c r="C20">
-        <v>1.781734661266967</v>
+        <v>1.605210098983889</v>
       </c>
       <c r="D20">
-        <v>0.04841086102917558</v>
+        <v>0.03994015090664504</v>
       </c>
       <c r="E20">
-        <v>0.377311063230735</v>
+        <v>2.313797224124414</v>
       </c>
       <c r="F20">
-        <v>3.727511770436195</v>
+        <v>3.580239334638378</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.848056535747943</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.684406494414375</v>
       </c>
       <c r="L20">
-        <v>0.8582072857378193</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.9940084400786162</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.427644315112957</v>
+        <v>6.701516497704972</v>
       </c>
       <c r="C21">
-        <v>2.045204500604996</v>
+        <v>1.851536637439892</v>
       </c>
       <c r="D21">
-        <v>0.05325322481037631</v>
+        <v>0.0439771027764877</v>
       </c>
       <c r="E21">
-        <v>0.4357645924831886</v>
+        <v>2.700287926883192</v>
       </c>
       <c r="F21">
-        <v>4.259161554779155</v>
+        <v>4.098413543008604</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.093098034586873</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.940646153536946</v>
       </c>
       <c r="L21">
-        <v>0.9893231741449711</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.014801887273023</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.977413089923004</v>
+        <v>7.302306658877455</v>
       </c>
       <c r="C22">
-        <v>2.223756627073215</v>
+        <v>2.020115349358321</v>
       </c>
       <c r="D22">
-        <v>0.05685671506154222</v>
+        <v>0.04711443971054763</v>
       </c>
       <c r="E22">
-        <v>0.4757956763904616</v>
+        <v>2.970104063557031</v>
       </c>
       <c r="F22">
-        <v>4.625244933458731</v>
+        <v>4.45748372017448</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.263209986897849</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.115572312858475</v>
       </c>
       <c r="L22">
-        <v>1.078729535017516</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.033895191022339</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.68219184947219</v>
+        <v>6.979030915508133</v>
       </c>
       <c r="C23">
-        <v>2.127801731825684</v>
+        <v>1.929345334784159</v>
       </c>
       <c r="D23">
-        <v>0.05488839941233437</v>
+        <v>0.04538763626850084</v>
       </c>
       <c r="E23">
-        <v>0.4542415142234759</v>
+        <v>2.824270745069185</v>
       </c>
       <c r="F23">
-        <v>4.427953297153351</v>
+        <v>4.263723382845853</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.171400236026273</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.021431248458953</v>
       </c>
       <c r="L23">
-        <v>1.030627779557619</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.023141230182389</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.600034507055227</v>
+        <v>5.806663715221418</v>
       </c>
       <c r="C24">
-        <v>1.777520008878014</v>
+        <v>1.601291553841349</v>
       </c>
       <c r="D24">
-        <v>0.04833811371915431</v>
+        <v>0.03988125246285534</v>
       </c>
       <c r="E24">
-        <v>0.3763821103118801</v>
+        <v>2.307720748555042</v>
       </c>
       <c r="F24">
-        <v>3.719094819936913</v>
+        <v>3.572063949625431</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.844197759386915</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.680324606981486</v>
       </c>
       <c r="L24">
-        <v>0.8561179173986631</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.9937493415031469</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.489816060774046</v>
+        <v>4.62298970833308</v>
       </c>
       <c r="C25">
-        <v>1.42043805049741</v>
+        <v>1.271585278942041</v>
       </c>
       <c r="D25">
-        <v>0.04273897864988641</v>
+        <v>0.03554071445188356</v>
       </c>
       <c r="E25">
-        <v>0.2984085825269105</v>
+        <v>1.804155456149886</v>
       </c>
       <c r="F25">
-        <v>3.017010884393301</v>
+        <v>2.89281068904441</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,18 +1523,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.524903213172109</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.33632443885007</v>
       </c>
       <c r="L25">
-        <v>0.6800628867635155</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.9806862375935452</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.797876584759479</v>
+        <v>5.468948626587178</v>
       </c>
       <c r="C2">
-        <v>1.042423977236496</v>
+        <v>1.677887332230966</v>
       </c>
       <c r="D2">
-        <v>0.03327405477550727</v>
+        <v>0.04975252548091902</v>
       </c>
       <c r="E2">
-        <v>1.462836816941461</v>
+        <v>1.50939899407787</v>
       </c>
       <c r="F2">
-        <v>2.432284390844075</v>
+        <v>2.933096948555573</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.09670021485195</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9828545794327965</v>
+        <v>0.7662818121604431</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.258845304857402</v>
+        <v>4.678966926910164</v>
       </c>
       <c r="C3">
-        <v>0.8929074833145876</v>
+        <v>1.433953302596763</v>
       </c>
       <c r="D3">
-        <v>0.03215595331025511</v>
+        <v>0.04483094474485938</v>
       </c>
       <c r="E3">
-        <v>1.243872212602</v>
+        <v>1.278896600640834</v>
       </c>
       <c r="F3">
-        <v>2.138104733882571</v>
+        <v>2.546928408920394</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9402031433980511</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900694412299913</v>
+        <v>0.7857303719789712</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.935461081733024</v>
+        <v>4.206923039662058</v>
       </c>
       <c r="C4">
-        <v>0.8032424087722063</v>
+        <v>1.288272118921498</v>
       </c>
       <c r="D4">
-        <v>0.03163384736199504</v>
+        <v>0.04212507575019941</v>
       </c>
       <c r="E4">
-        <v>1.113962551456808</v>
+        <v>1.142959030617746</v>
       </c>
       <c r="F4">
-        <v>1.964499636604046</v>
+        <v>2.320000491164649</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8463212695163094</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9969030756824679</v>
+        <v>0.8001945795632821</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.805281975489436</v>
+        <v>4.017276479079726</v>
       </c>
       <c r="C5">
-        <v>0.767148947972089</v>
+        <v>1.229751546091393</v>
       </c>
       <c r="D5">
-        <v>0.03145713389826099</v>
+        <v>0.04109012775927567</v>
       </c>
       <c r="E5">
-        <v>1.061967029648599</v>
+        <v>1.088714524515524</v>
       </c>
       <c r="F5">
-        <v>1.89528492559441</v>
+        <v>2.229707208136276</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8085284736767733</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000236455473697</v>
+        <v>0.8066586070511335</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.783754403641865</v>
+        <v>3.98593497084812</v>
       </c>
       <c r="C6">
-        <v>0.7611801016561515</v>
+        <v>1.220080428933159</v>
       </c>
       <c r="D6">
-        <v>0.03142982691489493</v>
+        <v>0.0409220552856695</v>
       </c>
       <c r="E6">
-        <v>1.053384960867888</v>
+        <v>1.079770082724423</v>
       </c>
       <c r="F6">
-        <v>1.883877975967039</v>
+        <v>2.214835746127306</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8022786426467405</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00082158847529</v>
+        <v>0.8077646426228071</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.933699328164153</v>
+        <v>4.204355086017699</v>
       </c>
       <c r="C7">
-        <v>0.8027539482375801</v>
+        <v>1.287479690451335</v>
       </c>
       <c r="D7">
-        <v>0.03163132465035545</v>
+        <v>0.04211085813278714</v>
       </c>
       <c r="E7">
-        <v>1.113257741239579</v>
+        <v>1.142223117418268</v>
       </c>
       <c r="F7">
-        <v>1.963560275457155</v>
+        <v>2.318774393699485</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8458098122528668</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9969458784285621</v>
+        <v>0.8002795277680903</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.61024962031388</v>
+        <v>5.193503022238872</v>
       </c>
       <c r="C8">
-        <v>0.9903676864483657</v>
+        <v>1.592809372026693</v>
       </c>
       <c r="D8">
-        <v>0.03285098003789244</v>
+        <v>0.04798230693133831</v>
       </c>
       <c r="E8">
-        <v>1.386269056108617</v>
+        <v>1.428594247013876</v>
       </c>
       <c r="F8">
-        <v>2.329243075206804</v>
+        <v>2.797587846024072</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.042223773811486</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9848076028228121</v>
+        <v>0.7724222269740295</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.013159696513867</v>
+        <v>7.266552242378054</v>
       </c>
       <c r="C9">
-        <v>1.380121838471553</v>
+        <v>2.234087656309327</v>
       </c>
       <c r="D9">
-        <v>0.03683328869460212</v>
+        <v>0.062653458608807</v>
       </c>
       <c r="E9">
-        <v>1.96826765736472</v>
+        <v>2.048752004630813</v>
       </c>
       <c r="F9">
-        <v>3.114432174315994</v>
+        <v>3.837808713342582</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.449678832278494</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.983010209842206</v>
+        <v>0.7413072283577691</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.117200437064014</v>
+        <v>8.923475356317056</v>
       </c>
       <c r="C10">
-        <v>1.688026012374507</v>
+        <v>2.748802828392911</v>
       </c>
       <c r="D10">
-        <v>0.04122416099230719</v>
+        <v>0.07652321467880796</v>
       </c>
       <c r="E10">
-        <v>2.44273837728116</v>
+        <v>2.565874317756382</v>
       </c>
       <c r="F10">
-        <v>3.753533305055555</v>
+        <v>4.699531739604851</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.770634612551021</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.000020460226096</v>
+        <v>0.7388851306767918</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.643078217374693</v>
+        <v>9.722346547608595</v>
       </c>
       <c r="C11">
-        <v>1.835164654871051</v>
+        <v>2.997854856208164</v>
       </c>
       <c r="D11">
-        <v>0.04368852977979287</v>
+        <v>0.08387364819024157</v>
       </c>
       <c r="E11">
-        <v>2.674318841597923</v>
+        <v>2.822770576626382</v>
       </c>
       <c r="F11">
-        <v>4.063725427617811</v>
+        <v>5.12361622661237</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.923638019564805</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.013152574539376</v>
+        <v>0.74408887916222</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.846436631972722</v>
+        <v>10.03316944382607</v>
       </c>
       <c r="C12">
-        <v>1.892156287681644</v>
+        <v>3.094930964864432</v>
       </c>
       <c r="D12">
-        <v>0.04470541991477006</v>
+        <v>0.08685021250184377</v>
       </c>
       <c r="E12">
-        <v>2.764895790012716</v>
+        <v>2.924152901371713</v>
       </c>
       <c r="F12">
-        <v>4.184620408523529</v>
+        <v>5.290059066797198</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.982829390805151</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.019052790283823</v>
+        <v>0.7471793718668209</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.802436961902174</v>
+        <v>9.965823877422167</v>
       </c>
       <c r="C13">
-        <v>1.879820730757217</v>
+        <v>3.073888925705717</v>
       </c>
       <c r="D13">
-        <v>0.04448238126682469</v>
+        <v>0.0861997217659578</v>
       </c>
       <c r="E13">
-        <v>2.745248543802347</v>
+        <v>2.902116598049162</v>
       </c>
       <c r="F13">
-        <v>4.158419197807973</v>
+        <v>5.253928692331613</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.970021234886744</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.017738029708354</v>
+        <v>0.7464598862977709</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.65971868859458</v>
+        <v>9.74773929970911</v>
       </c>
       <c r="C14">
-        <v>1.839826180059447</v>
+        <v>3.005781702187335</v>
       </c>
       <c r="D14">
-        <v>0.04377040226836471</v>
+        <v>0.08411436238851877</v>
       </c>
       <c r="E14">
-        <v>2.681708747343436</v>
+        <v>2.831022305354779</v>
       </c>
       <c r="F14">
-        <v>4.0735985971057</v>
+        <v>5.137183913829318</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.928481017675352</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.013618407907884</v>
+        <v>0.7443192435235062</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.572876725004733</v>
+        <v>9.615301125532369</v>
       </c>
       <c r="C15">
-        <v>1.815502854503961</v>
+        <v>2.964445859002581</v>
       </c>
       <c r="D15">
-        <v>0.04334575829016529</v>
+        <v>0.08286369534395277</v>
       </c>
       <c r="E15">
-        <v>2.643185372898799</v>
+        <v>2.788044078644646</v>
       </c>
       <c r="F15">
-        <v>4.022111748422617</v>
+        <v>5.066479271283612</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.903207790113242</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.011220890559585</v>
+        <v>0.7431612797168725</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.08337484728122</v>
+        <v>8.872319305275425</v>
       </c>
       <c r="C16">
-        <v>1.678573052045749</v>
+        <v>2.732875778965763</v>
       </c>
       <c r="D16">
-        <v>0.04107382398872517</v>
+        <v>0.07606720517564014</v>
       </c>
       <c r="E16">
-        <v>2.427970089949909</v>
+        <v>2.549598545952222</v>
       </c>
       <c r="F16">
-        <v>3.73370410970773</v>
+        <v>4.672560404155888</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.76079609010192</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9992829925136846</v>
+        <v>0.7386888151725373</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.789665427330647</v>
+        <v>8.429223737367352</v>
       </c>
       <c r="C17">
-        <v>1.596546940206224</v>
+        <v>2.595021789213035</v>
       </c>
       <c r="D17">
-        <v>0.03981016307572105</v>
+        <v>0.07219131098830189</v>
       </c>
       <c r="E17">
-        <v>2.300366238555185</v>
+        <v>2.409474113727597</v>
       </c>
       <c r="F17">
-        <v>3.562168101593926</v>
+        <v>4.439897914304225</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.675381993103201</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9934387287044757</v>
+        <v>0.737693885397789</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.622898696317804</v>
+        <v>8.17848112586006</v>
       </c>
       <c r="C18">
-        <v>1.550014948782803</v>
+        <v>2.517088938209838</v>
       </c>
       <c r="D18">
-        <v>0.03912608881533686</v>
+        <v>0.07005674833269637</v>
       </c>
       <c r="E18">
-        <v>2.228408508320868</v>
+        <v>2.330842408864328</v>
       </c>
       <c r="F18">
-        <v>3.465291900031559</v>
+        <v>4.309005481080618</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.626895327714294</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9905741747813579</v>
+        <v>0.7376994779227033</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.566784446292502</v>
+        <v>8.094243164403906</v>
       </c>
       <c r="C19">
-        <v>1.534364295704393</v>
+        <v>2.490919138164372</v>
       </c>
       <c r="D19">
-        <v>0.03890137742247646</v>
+        <v>0.06934918052720462</v>
       </c>
       <c r="E19">
-        <v>2.204275262894001</v>
+        <v>2.304531265679728</v>
       </c>
       <c r="F19">
-        <v>3.432781081935815</v>
+        <v>4.265158289146228</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.610582091665336</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9896855424708235</v>
+        <v>0.7377950564801381</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.820701639670688</v>
+        <v>8.475954642399756</v>
       </c>
       <c r="C20">
-        <v>1.605210098983889</v>
+        <v>2.60955218253082</v>
       </c>
       <c r="D20">
-        <v>0.03994015090664504</v>
+        <v>0.07259382790540769</v>
       </c>
       <c r="E20">
-        <v>2.313797224124414</v>
+        <v>2.424181162554532</v>
       </c>
       <c r="F20">
-        <v>3.580239334638378</v>
+        <v>4.464354231647661</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.684406494414375</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9940084400786162</v>
+        <v>0.7377386362788911</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.701516497704972</v>
+        <v>9.811553388556035</v>
       </c>
       <c r="C21">
-        <v>1.851536637439892</v>
+        <v>3.025705489588347</v>
       </c>
       <c r="D21">
-        <v>0.0439771027764877</v>
+        <v>0.08472122541935079</v>
       </c>
       <c r="E21">
-        <v>2.700287926883192</v>
+        <v>2.851783566085047</v>
       </c>
       <c r="F21">
-        <v>4.098413543008604</v>
+        <v>5.171304195904781</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.940646153536946</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.014801887273023</v>
+        <v>0.7449155932868194</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.302306658877455</v>
+        <v>10.73414594532971</v>
       </c>
       <c r="C22">
-        <v>2.020115349358321</v>
+        <v>3.314246898120984</v>
       </c>
       <c r="D22">
-        <v>0.04711443971054763</v>
+        <v>0.09380444722502546</v>
       </c>
       <c r="E22">
-        <v>2.970104063557031</v>
+        <v>3.155885617354116</v>
       </c>
       <c r="F22">
-        <v>4.45748372017448</v>
+        <v>5.66831228757394</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.115572312858475</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.033895191022339</v>
+        <v>0.756283968867038</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.979030915508133</v>
+        <v>10.23644040212434</v>
       </c>
       <c r="C23">
-        <v>1.929345334784159</v>
+        <v>3.158472466040735</v>
       </c>
       <c r="D23">
-        <v>0.04538763626850084</v>
+        <v>0.0888323051435691</v>
       </c>
       <c r="E23">
-        <v>2.824270745069185</v>
+        <v>2.990903722353877</v>
       </c>
       <c r="F23">
-        <v>4.263723382845853</v>
+        <v>5.399336969615632</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.021431248458953</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.023141230182389</v>
+        <v>0.7495171252934796</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.806663715221418</v>
+        <v>8.454815274020177</v>
       </c>
       <c r="C24">
-        <v>1.601291553841349</v>
+        <v>2.602978920579233</v>
       </c>
       <c r="D24">
-        <v>0.03988125246285534</v>
+        <v>0.07241156109891023</v>
       </c>
       <c r="E24">
-        <v>2.307720748555042</v>
+        <v>2.417526171041672</v>
       </c>
       <c r="F24">
-        <v>3.572063949625431</v>
+        <v>4.453288684573465</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.680324606981486</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9937493415031469</v>
+        <v>0.7377166205309749</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.62298970833308</v>
+        <v>6.686710289153893</v>
       </c>
       <c r="C25">
-        <v>1.271585278942041</v>
+        <v>2.054463834770274</v>
       </c>
       <c r="D25">
-        <v>0.03554071445188356</v>
+        <v>0.0582428326841864</v>
       </c>
       <c r="E25">
-        <v>1.804155456149886</v>
+        <v>1.872432136974894</v>
       </c>
       <c r="F25">
-        <v>2.89281068904441</v>
+        <v>3.54232938790534</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.33632443885007</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9806862375935452</v>
+        <v>0.7466566342944532</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.468948626587178</v>
+        <v>1.823114002679745</v>
       </c>
       <c r="C2">
-        <v>1.677887332230966</v>
+        <v>0.4813958968679231</v>
       </c>
       <c r="D2">
-        <v>0.04975252548091902</v>
+        <v>0.03834743138354213</v>
       </c>
       <c r="E2">
-        <v>1.50939899407787</v>
+        <v>0.4165535847911457</v>
       </c>
       <c r="F2">
-        <v>2.933096948555573</v>
+        <v>1.607424994274538</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7662818121604431</v>
+        <v>1.212118694768108</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.678966926910164</v>
+        <v>1.630456767043654</v>
       </c>
       <c r="C3">
-        <v>1.433953302596763</v>
+        <v>0.4204967157134547</v>
       </c>
       <c r="D3">
-        <v>0.04483094474485938</v>
+        <v>0.03753683670579733</v>
       </c>
       <c r="E3">
-        <v>1.278896600640834</v>
+        <v>0.3628436459713242</v>
       </c>
       <c r="F3">
-        <v>2.546928408920394</v>
+        <v>1.525055899423933</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7857303719789712</v>
+        <v>1.220976500462896</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.206923039662058</v>
+        <v>1.5130977584638</v>
       </c>
       <c r="C4">
-        <v>1.288272118921498</v>
+        <v>0.3832437444423817</v>
       </c>
       <c r="D4">
-        <v>0.04212507575019941</v>
+        <v>0.0370738913139661</v>
       </c>
       <c r="E4">
-        <v>1.142959030617746</v>
+        <v>0.3300359615345201</v>
       </c>
       <c r="F4">
-        <v>2.320000491164649</v>
+        <v>1.475737788692058</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8001945795632821</v>
+        <v>1.226962336557378</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.017276479079726</v>
+        <v>1.465500177147646</v>
       </c>
       <c r="C5">
-        <v>1.229751546091393</v>
+        <v>0.368095284847584</v>
       </c>
       <c r="D5">
-        <v>0.04109012775927567</v>
+        <v>0.03689378231912599</v>
       </c>
       <c r="E5">
-        <v>1.088714524515524</v>
+        <v>0.3167055049957952</v>
       </c>
       <c r="F5">
-        <v>2.229707208136276</v>
+        <v>1.455950422279628</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8066586070511335</v>
+        <v>1.229537901306273</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.98593497084812</v>
+        <v>1.457610138403879</v>
       </c>
       <c r="C6">
-        <v>1.220080428933159</v>
+        <v>0.3655817777130892</v>
       </c>
       <c r="D6">
-        <v>0.0409220552856695</v>
+        <v>0.03686438576837503</v>
       </c>
       <c r="E6">
-        <v>1.079770082724423</v>
+        <v>0.3144942316036321</v>
       </c>
       <c r="F6">
-        <v>2.214835746127306</v>
+        <v>1.452683308102579</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8077646426228071</v>
+        <v>1.229973765968055</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.204355086017699</v>
+        <v>1.512454930879699</v>
       </c>
       <c r="C7">
-        <v>1.287479690451335</v>
+        <v>0.383039319144018</v>
       </c>
       <c r="D7">
-        <v>0.04211085813278714</v>
+        <v>0.03707142796038454</v>
       </c>
       <c r="E7">
-        <v>1.142223117418268</v>
+        <v>0.3298560297946125</v>
       </c>
       <c r="F7">
-        <v>2.318774393699485</v>
+        <v>1.475469681206945</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8002795277680903</v>
+        <v>1.226996521383782</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.193503022238872</v>
+        <v>1.756487451233681</v>
       </c>
       <c r="C8">
-        <v>1.592809372026693</v>
+        <v>0.4603673259097718</v>
       </c>
       <c r="D8">
-        <v>0.04798230693133831</v>
+        <v>0.03806060385504395</v>
       </c>
       <c r="E8">
-        <v>1.428594247013876</v>
+        <v>0.397996633269031</v>
       </c>
       <c r="F8">
-        <v>2.797587846024072</v>
+        <v>1.57875967946643</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7724222269740295</v>
+        <v>1.215058535366232</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.266552242378054</v>
+        <v>2.24280884307052</v>
       </c>
       <c r="C9">
-        <v>2.234087656309327</v>
+        <v>0.6132401623679584</v>
       </c>
       <c r="D9">
-        <v>0.062653458608807</v>
+        <v>0.04028529937923508</v>
       </c>
       <c r="E9">
-        <v>2.048752004630813</v>
+        <v>0.5331574849092533</v>
       </c>
       <c r="F9">
-        <v>3.837808713342582</v>
+        <v>1.791563452685381</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7413072283577691</v>
+        <v>1.196047647162132</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.923475356317056</v>
+        <v>2.605402809847362</v>
       </c>
       <c r="C10">
-        <v>2.748802828392911</v>
+        <v>0.7264963117532375</v>
       </c>
       <c r="D10">
-        <v>0.07652321467880796</v>
+        <v>0.04210642825474054</v>
       </c>
       <c r="E10">
-        <v>2.565874317756382</v>
+        <v>0.6336659378606555</v>
       </c>
       <c r="F10">
-        <v>4.699531739604851</v>
+        <v>1.954569570134367</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7388851306767918</v>
+        <v>1.184843868109169</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.722346547608595</v>
+        <v>2.771630732378753</v>
       </c>
       <c r="C11">
-        <v>2.997854856208164</v>
+        <v>0.7782661748723285</v>
       </c>
       <c r="D11">
-        <v>0.08387364819024157</v>
+        <v>0.04297831604792179</v>
       </c>
       <c r="E11">
-        <v>2.822770576626382</v>
+        <v>0.6797117557207599</v>
       </c>
       <c r="F11">
-        <v>5.12361622661237</v>
+        <v>2.030262665696227</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.74408887916222</v>
+        <v>1.180365045838158</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.03316944382607</v>
+        <v>2.834771016760556</v>
       </c>
       <c r="C12">
-        <v>3.094930964864432</v>
+        <v>0.7979092261151663</v>
       </c>
       <c r="D12">
-        <v>0.08685021250184377</v>
+        <v>0.04331496359854015</v>
       </c>
       <c r="E12">
-        <v>2.924152901371713</v>
+        <v>0.697199565656021</v>
       </c>
       <c r="F12">
-        <v>5.290059066797198</v>
+        <v>2.059154535319635</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7471793718668209</v>
+        <v>1.178759399911769</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.965823877422167</v>
+        <v>2.821163880238942</v>
       </c>
       <c r="C13">
-        <v>3.073888925705717</v>
+        <v>0.7936769618805215</v>
       </c>
       <c r="D13">
-        <v>0.0861997217659578</v>
+        <v>0.04324216841251882</v>
       </c>
       <c r="E13">
-        <v>2.902116598049162</v>
+        <v>0.6934308976683923</v>
       </c>
       <c r="F13">
-        <v>5.253928692331613</v>
+        <v>2.052921877308734</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7464598862977709</v>
+        <v>1.179101159600208</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.74773929970911</v>
+        <v>2.776821393528394</v>
       </c>
       <c r="C14">
-        <v>3.005781702187335</v>
+        <v>0.779881422245353</v>
       </c>
       <c r="D14">
-        <v>0.08411436238851877</v>
+        <v>0.04300588095929214</v>
       </c>
       <c r="E14">
-        <v>2.831022305354779</v>
+        <v>0.6811494339380175</v>
       </c>
       <c r="F14">
-        <v>5.137183913829318</v>
+        <v>2.03263499648321</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7443192435235062</v>
+        <v>1.180231127950719</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.615301125532369</v>
+        <v>2.749685795068274</v>
       </c>
       <c r="C15">
-        <v>2.964445859002581</v>
+        <v>0.7714364191049867</v>
       </c>
       <c r="D15">
-        <v>0.08286369534395277</v>
+        <v>0.04286199935777546</v>
       </c>
       <c r="E15">
-        <v>2.788044078644646</v>
+        <v>0.6736334985529879</v>
       </c>
       <c r="F15">
-        <v>5.066479271283612</v>
+        <v>2.020238668069311</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7431612797168725</v>
+        <v>1.180935083537165</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.872319305275425</v>
+        <v>2.5945659884934</v>
       </c>
       <c r="C16">
-        <v>2.732875778965763</v>
+        <v>0.7231183056020996</v>
       </c>
       <c r="D16">
-        <v>0.07606720517564014</v>
+        <v>0.04205034256276718</v>
       </c>
       <c r="E16">
-        <v>2.549598545952222</v>
+        <v>0.6306636515447366</v>
       </c>
       <c r="F16">
-        <v>4.672560404155888</v>
+        <v>1.949654445585793</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7386888151725373</v>
+        <v>1.185149133291389</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.429223737367352</v>
+        <v>2.499739728419115</v>
       </c>
       <c r="C17">
-        <v>2.595021789213035</v>
+        <v>0.6935426905603208</v>
       </c>
       <c r="D17">
-        <v>0.07219131098830189</v>
+        <v>0.04156371071912446</v>
       </c>
       <c r="E17">
-        <v>2.409474113727597</v>
+        <v>0.6043893134583556</v>
       </c>
       <c r="F17">
-        <v>4.439897914304225</v>
+        <v>1.90675285851168</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.737693885397789</v>
+        <v>1.18789364674906</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.17848112586006</v>
+        <v>2.445318296630035</v>
       </c>
       <c r="C18">
-        <v>2.517088938209838</v>
+        <v>0.6765548321291135</v>
       </c>
       <c r="D18">
-        <v>0.07005674833269637</v>
+        <v>0.04128788803190275</v>
       </c>
       <c r="E18">
-        <v>2.330842408864328</v>
+        <v>0.5893072213077204</v>
       </c>
       <c r="F18">
-        <v>4.309005481080618</v>
+        <v>1.882221601045472</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7376994779227033</v>
+        <v>1.18953027760891</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.094243164403906</v>
+        <v>2.426912495739657</v>
       </c>
       <c r="C19">
-        <v>2.490919138164372</v>
+        <v>0.6708069353937844</v>
       </c>
       <c r="D19">
-        <v>0.06934918052720462</v>
+        <v>0.04119519203637623</v>
       </c>
       <c r="E19">
-        <v>2.304531265679728</v>
+        <v>0.5842057328244863</v>
       </c>
       <c r="F19">
-        <v>4.265158289146228</v>
+        <v>1.873940364122973</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7377950564801381</v>
+        <v>1.190094337879785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.475954642399756</v>
+        <v>2.509821648676223</v>
       </c>
       <c r="C20">
-        <v>2.60955218253082</v>
+        <v>0.6966886363742901</v>
       </c>
       <c r="D20">
-        <v>0.07259382790540769</v>
+        <v>0.04161509007005293</v>
       </c>
       <c r="E20">
-        <v>2.424181162554532</v>
+        <v>0.6071831013337743</v>
       </c>
       <c r="F20">
-        <v>4.464354231647661</v>
+        <v>1.911304790056136</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7377386362788911</v>
+        <v>1.187595468608365</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.811553388556035</v>
+        <v>2.789840535537792</v>
       </c>
       <c r="C21">
-        <v>3.025705489588347</v>
+        <v>0.7839324249746369</v>
       </c>
       <c r="D21">
-        <v>0.08472122541935079</v>
+        <v>0.04307510647793578</v>
       </c>
       <c r="E21">
-        <v>2.851783566085047</v>
+        <v>0.6847553686611576</v>
       </c>
       <c r="F21">
-        <v>5.171304195904781</v>
+        <v>2.038587486369266</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7449155932868194</v>
+        <v>1.179896763329893</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.73414594532971</v>
+        <v>2.97398057198302</v>
       </c>
       <c r="C22">
-        <v>3.314246898120984</v>
+        <v>0.841179685161535</v>
       </c>
       <c r="D22">
-        <v>0.09380444722502546</v>
+        <v>0.04406720988179558</v>
       </c>
       <c r="E22">
-        <v>3.155885617354116</v>
+        <v>0.7357543503820239</v>
       </c>
       <c r="F22">
-        <v>5.66831228757394</v>
+        <v>2.123109523238497</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.756283968867038</v>
+        <v>1.175392796021939</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.23644040212434</v>
+        <v>2.875594996329028</v>
       </c>
       <c r="C23">
-        <v>3.158472466040735</v>
+        <v>0.8106037976108951</v>
       </c>
       <c r="D23">
-        <v>0.0888323051435691</v>
+        <v>0.04353415888736123</v>
       </c>
       <c r="E23">
-        <v>2.990903722353877</v>
+        <v>0.7085061186113251</v>
       </c>
       <c r="F23">
-        <v>5.399336969615632</v>
+        <v>2.077873984331234</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7495171252934796</v>
+        <v>1.177747856566313</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.454815274020177</v>
+        <v>2.505263315905779</v>
       </c>
       <c r="C24">
-        <v>2.602978920579233</v>
+        <v>0.6952663060501436</v>
       </c>
       <c r="D24">
-        <v>0.07241156109891023</v>
+        <v>0.04159184918428593</v>
       </c>
       <c r="E24">
-        <v>2.417526171041672</v>
+        <v>0.6059199573793705</v>
       </c>
       <c r="F24">
-        <v>4.453288684573465</v>
+        <v>1.90924644670568</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7377166205309749</v>
+        <v>1.187730091995817</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.686710289153893</v>
+        <v>2.110357201227885</v>
       </c>
       <c r="C25">
-        <v>2.054463834770274</v>
+        <v>0.5717327513650616</v>
       </c>
       <c r="D25">
-        <v>0.0582428326841864</v>
+        <v>0.03965163600347665</v>
       </c>
       <c r="E25">
-        <v>1.872432136974894</v>
+        <v>0.4964009163727496</v>
       </c>
       <c r="F25">
-        <v>3.54232938790534</v>
+        <v>1.732855016866665</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7466566342944532</v>
+        <v>1.200711276772694</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.823114002679745</v>
+        <v>5.468948626587064</v>
       </c>
       <c r="C2">
-        <v>0.4813958968679231</v>
+        <v>1.677887332230739</v>
       </c>
       <c r="D2">
-        <v>0.03834743138354213</v>
+        <v>0.04975252548079823</v>
       </c>
       <c r="E2">
-        <v>0.4165535847911457</v>
+        <v>1.50939899407787</v>
       </c>
       <c r="F2">
-        <v>1.607424994274538</v>
+        <v>2.933096948555573</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.212118694768108</v>
+        <v>0.7662818121604431</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.630456767043654</v>
+        <v>4.678966926910221</v>
       </c>
       <c r="C3">
-        <v>0.4204967157134547</v>
+        <v>1.433953302597047</v>
       </c>
       <c r="D3">
-        <v>0.03753683670579733</v>
+        <v>0.04483094474463911</v>
       </c>
       <c r="E3">
-        <v>0.3628436459713242</v>
+        <v>1.278896600640849</v>
       </c>
       <c r="F3">
-        <v>1.525055899423933</v>
+        <v>2.546928408920394</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.220976500462896</v>
+        <v>0.7857303719789144</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5130977584638</v>
+        <v>4.206923039661945</v>
       </c>
       <c r="C4">
-        <v>0.3832437444423817</v>
+        <v>1.28827211892127</v>
       </c>
       <c r="D4">
-        <v>0.0370738913139661</v>
+        <v>0.04212507575020652</v>
       </c>
       <c r="E4">
-        <v>0.3300359615345201</v>
+        <v>1.142959030617789</v>
       </c>
       <c r="F4">
-        <v>1.475737788692058</v>
+        <v>2.32000049116462</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.226962336557378</v>
+        <v>0.8001945795633105</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.465500177147646</v>
+        <v>4.017276479079896</v>
       </c>
       <c r="C5">
-        <v>0.368095284847584</v>
+        <v>1.229751546091336</v>
       </c>
       <c r="D5">
-        <v>0.03689378231912599</v>
+        <v>0.04109012775894172</v>
       </c>
       <c r="E5">
-        <v>0.3167055049957952</v>
+        <v>1.08871452451551</v>
       </c>
       <c r="F5">
-        <v>1.455950422279628</v>
+        <v>2.229707208136247</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.229537901306273</v>
+        <v>0.8066586070511619</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.457610138403879</v>
+        <v>3.985934970848007</v>
       </c>
       <c r="C6">
-        <v>0.3655817777130892</v>
+        <v>1.220080428933443</v>
       </c>
       <c r="D6">
-        <v>0.03686438576837503</v>
+        <v>0.0409220552856695</v>
       </c>
       <c r="E6">
-        <v>0.3144942316036321</v>
+        <v>1.079770082724409</v>
       </c>
       <c r="F6">
-        <v>1.452683308102579</v>
+        <v>2.214835746127306</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.229973765968055</v>
+        <v>0.8077646426227858</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.512454930879699</v>
+        <v>4.204355086017642</v>
       </c>
       <c r="C7">
-        <v>0.383039319144018</v>
+        <v>1.28747969045088</v>
       </c>
       <c r="D7">
-        <v>0.03707142796038454</v>
+        <v>0.04211085813290083</v>
       </c>
       <c r="E7">
-        <v>0.3298560297946125</v>
+        <v>1.142223117418212</v>
       </c>
       <c r="F7">
-        <v>1.475469681206945</v>
+        <v>2.318774393699485</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.226996521383782</v>
+        <v>0.8002795277680974</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.756487451233681</v>
+        <v>5.193503022238644</v>
       </c>
       <c r="C8">
-        <v>0.4603673259097718</v>
+        <v>1.592809372026977</v>
       </c>
       <c r="D8">
-        <v>0.03806060385504395</v>
+        <v>0.04798230693134542</v>
       </c>
       <c r="E8">
-        <v>0.397996633269031</v>
+        <v>1.428594247013876</v>
       </c>
       <c r="F8">
-        <v>1.57875967946643</v>
+        <v>2.797587846024072</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.215058535366232</v>
+        <v>0.7724222269740437</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.24280884307052</v>
+        <v>7.266552242377941</v>
       </c>
       <c r="C9">
-        <v>0.6132401623679584</v>
+        <v>2.234087656309612</v>
       </c>
       <c r="D9">
-        <v>0.04028529937923508</v>
+        <v>0.06265345860855831</v>
       </c>
       <c r="E9">
-        <v>0.5331574849092533</v>
+        <v>2.048752004630714</v>
       </c>
       <c r="F9">
-        <v>1.791563452685381</v>
+        <v>3.837808713342554</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.196047647162132</v>
+        <v>0.7413072283577549</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.605402809847362</v>
+        <v>8.923475356317113</v>
       </c>
       <c r="C10">
-        <v>0.7264963117532375</v>
+        <v>2.748802828393195</v>
       </c>
       <c r="D10">
-        <v>0.04210642825474054</v>
+        <v>0.07652321467896428</v>
       </c>
       <c r="E10">
-        <v>0.6336659378606555</v>
+        <v>2.565874317756368</v>
       </c>
       <c r="F10">
-        <v>1.954569570134367</v>
+        <v>4.699531739604851</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.184843868109169</v>
+        <v>0.7388851306768061</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.771630732378753</v>
+        <v>9.722346547608367</v>
       </c>
       <c r="C11">
-        <v>0.7782661748723285</v>
+        <v>2.997854856207709</v>
       </c>
       <c r="D11">
-        <v>0.04297831604792179</v>
+        <v>0.08387364819040499</v>
       </c>
       <c r="E11">
-        <v>0.6797117557207599</v>
+        <v>2.822770576626368</v>
       </c>
       <c r="F11">
-        <v>2.030262665696227</v>
+        <v>5.12361622661237</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.180365045838158</v>
+        <v>0.7440888791622484</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.834771016760556</v>
+        <v>10.03316944382607</v>
       </c>
       <c r="C12">
-        <v>0.7979092261151663</v>
+        <v>3.094930964864147</v>
       </c>
       <c r="D12">
-        <v>0.04331496359854015</v>
+        <v>0.08685021250204983</v>
       </c>
       <c r="E12">
-        <v>0.697199565656021</v>
+        <v>2.924152901371755</v>
       </c>
       <c r="F12">
-        <v>2.059154535319635</v>
+        <v>5.290059066797227</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.178759399911769</v>
+        <v>0.7471793718668209</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.821163880238942</v>
+        <v>9.965823877422395</v>
       </c>
       <c r="C13">
-        <v>0.7936769618805215</v>
+        <v>3.073888925705376</v>
       </c>
       <c r="D13">
-        <v>0.04324216841251882</v>
+        <v>0.08619972176609281</v>
       </c>
       <c r="E13">
-        <v>0.6934308976683923</v>
+        <v>2.902116598049233</v>
       </c>
       <c r="F13">
-        <v>2.052921877308734</v>
+        <v>5.253928692331669</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.179101159600208</v>
+        <v>0.7464598862978278</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.776821393528394</v>
+        <v>9.747739299708883</v>
       </c>
       <c r="C14">
-        <v>0.779881422245353</v>
+        <v>3.005781702187107</v>
       </c>
       <c r="D14">
-        <v>0.04300588095929214</v>
+        <v>0.08411436238852588</v>
       </c>
       <c r="E14">
-        <v>0.6811494339380175</v>
+        <v>2.831022305354765</v>
       </c>
       <c r="F14">
-        <v>2.03263499648321</v>
+        <v>5.137183913829318</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.180231127950719</v>
+        <v>0.7443192435234494</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.749685795068274</v>
+        <v>9.615301125532255</v>
       </c>
       <c r="C15">
-        <v>0.7714364191049867</v>
+        <v>2.964445859002581</v>
       </c>
       <c r="D15">
-        <v>0.04286199935777546</v>
+        <v>0.08286369534403093</v>
       </c>
       <c r="E15">
-        <v>0.6736334985529879</v>
+        <v>2.788044078644646</v>
       </c>
       <c r="F15">
-        <v>2.020238668069311</v>
+        <v>5.066479271283555</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.180935083537165</v>
+        <v>0.7431612797168583</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.5945659884934</v>
+        <v>8.872319305275198</v>
       </c>
       <c r="C16">
-        <v>0.7231183056020996</v>
+        <v>2.732875778965706</v>
       </c>
       <c r="D16">
-        <v>0.04205034256276718</v>
+        <v>0.07606720517550514</v>
       </c>
       <c r="E16">
-        <v>0.6306636515447366</v>
+        <v>2.549598545952236</v>
       </c>
       <c r="F16">
-        <v>1.949654445585793</v>
+        <v>4.67256040415586</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.185149133291389</v>
+        <v>0.7386888151724804</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.499739728419115</v>
+        <v>8.429223737367352</v>
       </c>
       <c r="C17">
-        <v>0.6935426905603208</v>
+        <v>2.595021789212751</v>
       </c>
       <c r="D17">
-        <v>0.04156371071912446</v>
+        <v>0.07219131098850795</v>
       </c>
       <c r="E17">
-        <v>0.6043893134583556</v>
+        <v>2.409474113727626</v>
       </c>
       <c r="F17">
-        <v>1.90675285851168</v>
+        <v>4.439897914304254</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.18789364674906</v>
+        <v>0.737693885397789</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.445318296630035</v>
+        <v>8.178481125860174</v>
       </c>
       <c r="C18">
-        <v>0.6765548321291135</v>
+        <v>2.517088938209952</v>
       </c>
       <c r="D18">
-        <v>0.04128788803190275</v>
+        <v>0.07005674833269637</v>
       </c>
       <c r="E18">
-        <v>0.5893072213077204</v>
+        <v>2.330842408864399</v>
       </c>
       <c r="F18">
-        <v>1.882221601045472</v>
+        <v>4.309005481080561</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.18953027760891</v>
+        <v>0.7376994779227175</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.426912495739657</v>
+        <v>8.094243164403792</v>
       </c>
       <c r="C19">
-        <v>0.6708069353937844</v>
+        <v>2.490919138164315</v>
       </c>
       <c r="D19">
-        <v>0.04119519203637623</v>
+        <v>0.06934918052709094</v>
       </c>
       <c r="E19">
-        <v>0.5842057328244863</v>
+        <v>2.304531265679742</v>
       </c>
       <c r="F19">
-        <v>1.873940364122973</v>
+        <v>4.2651582891462</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.190094337879785</v>
+        <v>0.7377950564800813</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.509821648676223</v>
+        <v>8.475954642399756</v>
       </c>
       <c r="C20">
-        <v>0.6966886363742901</v>
+        <v>2.609552182530877</v>
       </c>
       <c r="D20">
-        <v>0.04161509007005293</v>
+        <v>0.07259382790524427</v>
       </c>
       <c r="E20">
-        <v>0.6071831013337743</v>
+        <v>2.424181162554561</v>
       </c>
       <c r="F20">
-        <v>1.911304790056136</v>
+        <v>4.464354231647718</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.187595468608365</v>
+        <v>0.7377386362789196</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.789840535537792</v>
+        <v>9.811553388556035</v>
       </c>
       <c r="C21">
-        <v>0.7839324249746369</v>
+        <v>3.025705489588233</v>
       </c>
       <c r="D21">
-        <v>0.04307510647793578</v>
+        <v>0.0847212254195</v>
       </c>
       <c r="E21">
-        <v>0.6847553686611576</v>
+        <v>2.851783566085032</v>
       </c>
       <c r="F21">
-        <v>2.038587486369266</v>
+        <v>5.171304195904753</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.179896763329893</v>
+        <v>0.7449155932868194</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.97398057198302</v>
+        <v>10.73414594532949</v>
       </c>
       <c r="C22">
-        <v>0.841179685161535</v>
+        <v>3.314246898120871</v>
       </c>
       <c r="D22">
-        <v>0.04406720988179558</v>
+        <v>0.09380444722523151</v>
       </c>
       <c r="E22">
-        <v>0.7357543503820239</v>
+        <v>3.155885617354059</v>
       </c>
       <c r="F22">
-        <v>2.123109523238497</v>
+        <v>5.668312287573912</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.175392796021939</v>
+        <v>0.7562839688670522</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.875594996329028</v>
+        <v>10.23644040212446</v>
       </c>
       <c r="C23">
-        <v>0.8106037976108951</v>
+        <v>3.158472466040905</v>
       </c>
       <c r="D23">
-        <v>0.04353415888736123</v>
+        <v>0.08883230514357621</v>
       </c>
       <c r="E23">
-        <v>0.7085061186113251</v>
+        <v>2.990903722353877</v>
       </c>
       <c r="F23">
-        <v>2.077873984331234</v>
+        <v>5.399336969615575</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.177747856566313</v>
+        <v>0.7495171252934085</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.505263315905779</v>
+        <v>8.454815274020063</v>
       </c>
       <c r="C24">
-        <v>0.6952663060501436</v>
+        <v>2.602978920579176</v>
       </c>
       <c r="D24">
-        <v>0.04159184918428593</v>
+        <v>0.07241156109869706</v>
       </c>
       <c r="E24">
-        <v>0.6059199573793705</v>
+        <v>2.4175261710417</v>
       </c>
       <c r="F24">
-        <v>1.90924644670568</v>
+        <v>4.453288684573465</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.187730091995817</v>
+        <v>0.7377166205309607</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.110357201227885</v>
+        <v>6.686710289153723</v>
       </c>
       <c r="C25">
-        <v>0.5717327513650616</v>
+        <v>2.054463834770445</v>
       </c>
       <c r="D25">
-        <v>0.03965163600347665</v>
+        <v>0.05824283268395192</v>
       </c>
       <c r="E25">
-        <v>0.4964009163727496</v>
+        <v>1.872432136974894</v>
       </c>
       <c r="F25">
-        <v>1.732855016866665</v>
+        <v>3.542329387905312</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.200711276772694</v>
+        <v>0.7466566342944674</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.468948626587064</v>
+        <v>1.286031227442209</v>
       </c>
       <c r="C2">
-        <v>1.677887332230739</v>
+        <v>0.4191888347769748</v>
       </c>
       <c r="D2">
-        <v>0.04975252548079823</v>
+        <v>0.04558217838769352</v>
       </c>
       <c r="E2">
-        <v>1.50939899407787</v>
+        <v>1.266630774632006</v>
       </c>
       <c r="F2">
-        <v>2.933096948555573</v>
+        <v>1.419156211003681</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002611044504653881</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0009989594484114406</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8137359551827572</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.683201031596582</v>
       </c>
       <c r="N2">
-        <v>0.7662818121604431</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.285316808609423</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.678966926910221</v>
+        <v>1.117711614025154</v>
       </c>
       <c r="C3">
-        <v>1.433953302597047</v>
+        <v>0.3627915713108223</v>
       </c>
       <c r="D3">
-        <v>0.04483094474463911</v>
+        <v>0.04491203610851713</v>
       </c>
       <c r="E3">
-        <v>1.278896600640849</v>
+        <v>1.097544672277166</v>
       </c>
       <c r="F3">
-        <v>2.546928408920394</v>
+        <v>1.301951883914327</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001088782834859359</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002139970578018957</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7660591806725847</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.461584917834273</v>
       </c>
       <c r="N3">
-        <v>0.7857303719789144</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.289947856992967</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.206923039661945</v>
+        <v>1.014268463520125</v>
       </c>
       <c r="C4">
-        <v>1.28827211892127</v>
+        <v>0.328682635399673</v>
       </c>
       <c r="D4">
-        <v>0.04212507575020652</v>
+        <v>0.04445781880278332</v>
       </c>
       <c r="E4">
-        <v>1.142959030617789</v>
+        <v>0.9943159740709291</v>
       </c>
       <c r="F4">
-        <v>2.32000049116462</v>
+        <v>1.230606464675503</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0004630891763826028</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003220745490686738</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7368887406456821</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.325966054614412</v>
       </c>
       <c r="N4">
-        <v>0.8001945795633105</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.292930294196296</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.017276479079896</v>
+        <v>0.9709956571336136</v>
       </c>
       <c r="C5">
-        <v>1.229751546091336</v>
+        <v>0.3153089801469946</v>
       </c>
       <c r="D5">
-        <v>0.04109012775894172</v>
+        <v>0.04426115093572047</v>
       </c>
       <c r="E5">
-        <v>1.08871452451551</v>
+        <v>0.9523554871529569</v>
       </c>
       <c r="F5">
-        <v>2.229707208136247</v>
+        <v>1.200240442713351</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0002799720006607664</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003829286791573239</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7239385985456011</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.270258410255991</v>
       </c>
       <c r="N5">
-        <v>0.8066586070511619</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.292974781964034</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.985934970848007</v>
+        <v>0.9624848626953622</v>
       </c>
       <c r="C6">
-        <v>1.220080428933443</v>
+        <v>0.3135970164431683</v>
       </c>
       <c r="D6">
-        <v>0.0409220552856695</v>
+        <v>0.04422699755962611</v>
       </c>
       <c r="E6">
-        <v>1.079770082724409</v>
+        <v>0.9453745506955187</v>
       </c>
       <c r="F6">
-        <v>2.214835746127306</v>
+        <v>1.193462321727679</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0002531688844431557</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00403842950985478</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7204681611137502</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.260365838255552</v>
       </c>
       <c r="N6">
-        <v>0.8077646426227858</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.29151977919576</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.204355086017642</v>
+        <v>1.010057117337652</v>
       </c>
       <c r="C7">
-        <v>1.28747969045088</v>
+        <v>0.3298761301529964</v>
       </c>
       <c r="D7">
-        <v>0.04211085813290083</v>
+        <v>0.04445338632309692</v>
       </c>
       <c r="E7">
-        <v>1.142223117418212</v>
+        <v>0.9936924792687734</v>
       </c>
       <c r="F7">
-        <v>2.318774393699485</v>
+        <v>1.225427698502344</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0004579601193981375</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003491233418167816</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7331012741849676</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.323439359456074</v>
       </c>
       <c r="N7">
-        <v>0.8002795277680974</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.288942213706022</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.193503022238644</v>
+        <v>1.223141636277461</v>
       </c>
       <c r="C8">
-        <v>1.592809372026977</v>
+        <v>0.4014601380974057</v>
       </c>
       <c r="D8">
-        <v>0.04798230693134542</v>
+        <v>0.04536097938704309</v>
       </c>
       <c r="E8">
-        <v>1.428594247013876</v>
+        <v>1.208104815544345</v>
       </c>
       <c r="F8">
-        <v>2.797587846024072</v>
+        <v>1.372264562368002</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002012452704653001</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001615490189270652</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7924754688725315</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.604289837802327</v>
       </c>
       <c r="N8">
-        <v>0.7724222269740437</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.281657531299722</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.266552242377941</v>
+        <v>1.647561237310356</v>
       </c>
       <c r="C9">
-        <v>2.234087656309612</v>
+        <v>0.5441595057501729</v>
       </c>
       <c r="D9">
-        <v>0.06265345860855831</v>
+        <v>0.04679304586174826</v>
       </c>
       <c r="E9">
-        <v>2.048752004630714</v>
+        <v>1.634639768254559</v>
       </c>
       <c r="F9">
-        <v>3.837808713342554</v>
+        <v>1.674784892768429</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.007776101983297479</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008424421389987558</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9166178352247627</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.163243283429836</v>
       </c>
       <c r="N9">
-        <v>0.7413072283577549</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.275822108913431</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.923475356317113</v>
+        <v>1.947244158591133</v>
       </c>
       <c r="C10">
-        <v>2.748802828393195</v>
+        <v>0.6451552648468351</v>
       </c>
       <c r="D10">
-        <v>0.07652321467896428</v>
+        <v>0.04781693514660468</v>
       </c>
       <c r="E10">
-        <v>2.565874317756368</v>
+        <v>1.853777522857868</v>
       </c>
       <c r="F10">
-        <v>4.699531739604851</v>
+        <v>1.872555438970906</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01353875840503438</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002705121164973789</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9917902182019915</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.557677492365627</v>
       </c>
       <c r="N10">
-        <v>0.7388851306768061</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.253338249392556</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.722346547608367</v>
+        <v>1.979073416480276</v>
       </c>
       <c r="C11">
-        <v>2.997854856207709</v>
+        <v>0.6214393370319726</v>
       </c>
       <c r="D11">
-        <v>0.08387364819040499</v>
+        <v>0.05140296542212042</v>
       </c>
       <c r="E11">
-        <v>2.822770576626368</v>
+        <v>1.185264715490305</v>
       </c>
       <c r="F11">
-        <v>5.12361622661237</v>
+        <v>1.723119331969272</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0299387077369353</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003636558634878106</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8894466573752595</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.558539412399654</v>
       </c>
       <c r="N11">
-        <v>0.7440888791622484</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.097336545939989</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.03316944382607</v>
+        <v>1.948100365932078</v>
       </c>
       <c r="C12">
-        <v>3.094930964864147</v>
+        <v>0.5791533610750719</v>
       </c>
       <c r="D12">
-        <v>0.08685021250204983</v>
+        <v>0.05604893678405176</v>
       </c>
       <c r="E12">
-        <v>2.924152901371755</v>
+        <v>0.7050895719321062</v>
       </c>
       <c r="F12">
-        <v>5.290059066797227</v>
+        <v>1.567907851258312</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06662400192125517</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.00353153325940081</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7974821229818687</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.478921731977266</v>
       </c>
       <c r="N12">
-        <v>0.7471793718668209</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.9909846640773523</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.965823877422395</v>
+        <v>1.861590210810817</v>
       </c>
       <c r="C13">
-        <v>3.073888925705376</v>
+        <v>0.5227388632069392</v>
       </c>
       <c r="D13">
-        <v>0.08619972176609281</v>
+        <v>0.06164095174239392</v>
       </c>
       <c r="E13">
-        <v>2.902116598049233</v>
+        <v>0.3429676602966509</v>
       </c>
       <c r="F13">
-        <v>5.253928692331669</v>
+        <v>1.392368238168061</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1203745597652244</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002982200606544971</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.7027449116944027</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.33080025857808</v>
       </c>
       <c r="N13">
-        <v>0.7464598862978278</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.9097972623303292</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.747739299708883</v>
+        <v>1.775487986595152</v>
       </c>
       <c r="C14">
-        <v>3.005781702187107</v>
+        <v>0.4779241680903965</v>
       </c>
       <c r="D14">
-        <v>0.08411436238852588</v>
+        <v>0.06617522165079492</v>
       </c>
       <c r="E14">
-        <v>2.831022305354765</v>
+        <v>0.1614462784020887</v>
       </c>
       <c r="F14">
-        <v>5.137183913829318</v>
+        <v>1.260982096303692</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.168422437971671</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002548975230777017</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6354654689831847</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.196918752089317</v>
       </c>
       <c r="N14">
-        <v>0.7443192435234494</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.8655330209190737</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.615301125532255</v>
+        <v>1.741510067959183</v>
       </c>
       <c r="C15">
-        <v>2.964445859002581</v>
+        <v>0.4644124744175144</v>
       </c>
       <c r="D15">
-        <v>0.08286369534403093</v>
+        <v>0.06729253897280074</v>
       </c>
       <c r="E15">
-        <v>2.788044078644646</v>
+        <v>0.1261577388044373</v>
       </c>
       <c r="F15">
-        <v>5.066479271283555</v>
+        <v>1.222769231554196</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1804989319340251</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002480250614784296</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6169789065823608</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.149343706900936</v>
       </c>
       <c r="N15">
-        <v>0.7431612797168583</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8575050491060416</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.872319305275198</v>
+        <v>1.630617943330037</v>
       </c>
       <c r="C16">
-        <v>2.732875778965706</v>
+        <v>0.4349770057954743</v>
       </c>
       <c r="D16">
-        <v>0.07606720517550514</v>
+        <v>0.06546169734383511</v>
       </c>
       <c r="E16">
-        <v>2.549598545952236</v>
+        <v>0.1223028821088725</v>
       </c>
       <c r="F16">
-        <v>4.67256040415586</v>
+        <v>1.174626084266748</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1661993828884647</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001967705166022071</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6039114324864485</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.013300076321116</v>
       </c>
       <c r="N16">
-        <v>0.7386888151724804</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8812432637739498</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.429223737367352</v>
+        <v>1.590822211824587</v>
       </c>
       <c r="C17">
-        <v>2.595021789212751</v>
+        <v>0.4358937898837212</v>
       </c>
       <c r="D17">
-        <v>0.07219131098850795</v>
+        <v>0.06155173650440915</v>
       </c>
       <c r="E17">
-        <v>2.409474113727626</v>
+        <v>0.2017759444045026</v>
       </c>
       <c r="F17">
-        <v>4.439897914304254</v>
+        <v>1.206259408980074</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1278334552833513</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00183230964176051</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6287780059324177</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.979301679871867</v>
       </c>
       <c r="N17">
-        <v>0.737693885397789</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.921794416111652</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.178481125860174</v>
+        <v>1.610559191097337</v>
       </c>
       <c r="C18">
-        <v>2.517088938209952</v>
+        <v>0.4627184632199715</v>
       </c>
       <c r="D18">
-        <v>0.07005674833269637</v>
+        <v>0.05612657972853086</v>
       </c>
       <c r="E18">
-        <v>2.330842408864399</v>
+        <v>0.4242055998492162</v>
       </c>
       <c r="F18">
-        <v>4.309005481080561</v>
+        <v>1.31647223695397</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07539341300103786</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001600478001856587</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6940360392781457</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.030977037592095</v>
       </c>
       <c r="N18">
-        <v>0.7376994779227175</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.99048327313686</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.094243164403792</v>
+        <v>1.670697151323736</v>
       </c>
       <c r="C19">
-        <v>2.490919138164315</v>
+        <v>0.5125841631225683</v>
       </c>
       <c r="D19">
-        <v>0.06934918052709094</v>
+        <v>0.0513331868395035</v>
       </c>
       <c r="E19">
-        <v>2.304531265679742</v>
+        <v>0.8421968718566717</v>
       </c>
       <c r="F19">
-        <v>4.2651582891462</v>
+        <v>1.480165499056284</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03180631391087729</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00183859151667054</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7859473750211023</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.146658912333862</v>
       </c>
       <c r="N19">
-        <v>0.7377950564800813</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.083316202685729</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.475954642399756</v>
+        <v>1.856243925775402</v>
       </c>
       <c r="C20">
-        <v>2.609552182530877</v>
+        <v>0.6223983346794171</v>
       </c>
       <c r="D20">
-        <v>0.07259382790524427</v>
+        <v>0.04760354643273423</v>
       </c>
       <c r="E20">
-        <v>2.424181162554561</v>
+        <v>1.791543520641923</v>
       </c>
       <c r="F20">
-        <v>4.464354231647718</v>
+        <v>1.804112713505162</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01181795029505617</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002760445124883049</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9600237926917785</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.447085169221623</v>
       </c>
       <c r="N20">
-        <v>0.7377386362789196</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.246529539139217</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.811553388556035</v>
+        <v>2.106747109425498</v>
       </c>
       <c r="C21">
-        <v>3.025705489588233</v>
+        <v>0.7136769949472352</v>
       </c>
       <c r="D21">
-        <v>0.0847212254195</v>
+        <v>0.04801927291082819</v>
       </c>
       <c r="E21">
-        <v>2.851783566085032</v>
+        <v>2.116052257061028</v>
       </c>
       <c r="F21">
-        <v>5.171304195904753</v>
+        <v>2.003487073824672</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01775514746038898</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.005020289860985905</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.044760183801742</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.784597798709001</v>
       </c>
       <c r="N21">
-        <v>0.7449155932868194</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1.259650223306252</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.73414594532949</v>
+        <v>2.270264544038014</v>
       </c>
       <c r="C22">
-        <v>3.314246898120871</v>
+        <v>0.7682447434654023</v>
       </c>
       <c r="D22">
-        <v>0.09380444722523151</v>
+        <v>0.04833563854668554</v>
       </c>
       <c r="E22">
-        <v>3.155885617354059</v>
+        <v>2.279265636729079</v>
       </c>
       <c r="F22">
-        <v>5.668312287573912</v>
+        <v>2.127738124798341</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02189988699063594</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00676304360213642</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.097445834279597</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.998968867292575</v>
       </c>
       <c r="N22">
-        <v>0.7562839688670522</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1.264658849157172</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.23644040212446</v>
+        <v>2.187429737842194</v>
       </c>
       <c r="C23">
-        <v>3.158472466040905</v>
+        <v>0.7373379981012818</v>
       </c>
       <c r="D23">
-        <v>0.08883230514357621</v>
+        <v>0.04815948659206981</v>
       </c>
       <c r="E23">
-        <v>2.990903722353877</v>
+        <v>2.192106528291632</v>
       </c>
       <c r="F23">
-        <v>5.399336969615575</v>
+        <v>2.066987542713264</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0196554228454191</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.005513864778780686</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.073580376467774</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.886627962567047</v>
       </c>
       <c r="N23">
-        <v>0.7495171252934085</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1.266443066510931</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.454815274020063</v>
+        <v>1.867908234319657</v>
       </c>
       <c r="C24">
-        <v>2.602978920579176</v>
+        <v>0.6250663627911024</v>
       </c>
       <c r="D24">
-        <v>0.07241156109869706</v>
+        <v>0.04742405273188233</v>
       </c>
       <c r="E24">
-        <v>2.4175261710417</v>
+        <v>1.86517763498135</v>
       </c>
       <c r="F24">
-        <v>4.453288684573465</v>
+        <v>1.831183944109</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0121330733793899</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002337285008923828</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9774823796991399</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.461024369196252</v>
       </c>
       <c r="N24">
-        <v>0.7377166205309607</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.267099389245374</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.686710289153723</v>
+        <v>1.525894049705585</v>
       </c>
       <c r="C25">
-        <v>2.054463834770445</v>
+        <v>0.5074734643070542</v>
       </c>
       <c r="D25">
-        <v>0.05824283268395192</v>
+        <v>0.04645207832640086</v>
       </c>
       <c r="E25">
-        <v>1.872432136974894</v>
+        <v>1.518286849585735</v>
       </c>
       <c r="F25">
-        <v>3.542329387905312</v>
+        <v>1.583443217383532</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.005875683882205052</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001071996931588437</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8762787904412477</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.007968692056465</v>
       </c>
       <c r="N25">
-        <v>0.7466566342944674</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.270178602100856</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.286031227442209</v>
+        <v>1.144365568693615</v>
       </c>
       <c r="C2">
-        <v>0.4191888347769748</v>
+        <v>0.4768948503371746</v>
       </c>
       <c r="D2">
-        <v>0.04558217838769352</v>
+        <v>0.04390154172560656</v>
       </c>
       <c r="E2">
-        <v>1.266630774632006</v>
+        <v>1.270800108850111</v>
       </c>
       <c r="F2">
-        <v>1.419156211003681</v>
+        <v>1.213081774035061</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.002611044504653881</v>
+        <v>0.002950168185233748</v>
       </c>
       <c r="I2">
-        <v>0.0009989594484114406</v>
+        <v>0.0007040697170195287</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.8137359551827572</v>
+        <v>0.6508578181011586</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2959693426205163</v>
       </c>
       <c r="M2">
-        <v>1.683201031596582</v>
+        <v>0.1993479144368067</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.616918133959047</v>
       </c>
       <c r="P2">
-        <v>1.285316808609423</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.100130805727737</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.117711614025154</v>
+        <v>0.9994946990973403</v>
       </c>
       <c r="C3">
-        <v>0.3627915713108223</v>
+        <v>0.4110749185309146</v>
       </c>
       <c r="D3">
-        <v>0.04491203610851713</v>
+        <v>0.04267266960965621</v>
       </c>
       <c r="E3">
-        <v>1.097544672277166</v>
+        <v>1.102070347543972</v>
       </c>
       <c r="F3">
-        <v>1.301951883914327</v>
+        <v>1.123106779357173</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001088782834859359</v>
+        <v>0.001363830642439279</v>
       </c>
       <c r="I3">
-        <v>0.002139970578018957</v>
+        <v>0.001324642405909238</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.7660591806725847</v>
+        <v>0.6221527811399667</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2926820649275399</v>
       </c>
       <c r="M3">
-        <v>1.461584917834273</v>
+        <v>0.1820405428755052</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.406862966484169</v>
       </c>
       <c r="P3">
-        <v>1.289947856992967</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.121500785356965</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.014268463520125</v>
+        <v>0.91013188374572</v>
       </c>
       <c r="C4">
-        <v>0.328682635399673</v>
+        <v>0.3713153141296175</v>
       </c>
       <c r="D4">
-        <v>0.04445781880278332</v>
+        <v>0.04189231631519519</v>
       </c>
       <c r="E4">
-        <v>0.9943159740709291</v>
+        <v>0.9989558957515783</v>
       </c>
       <c r="F4">
-        <v>1.230606464675503</v>
+        <v>1.068202814330832</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0004630891763826028</v>
+        <v>0.0006707503427954009</v>
       </c>
       <c r="I4">
-        <v>0.003220745490686738</v>
+        <v>0.002004526330094958</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.7368887406456821</v>
+        <v>0.6044680821934136</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.290388476745953</v>
       </c>
       <c r="M4">
-        <v>1.325966054614412</v>
+        <v>0.1721787873626752</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.278093844174379</v>
       </c>
       <c r="P4">
-        <v>1.292930294196296</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.134778383931661</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9709956571336136</v>
+        <v>0.8726403933702329</v>
       </c>
       <c r="C5">
-        <v>0.3153089801469946</v>
+        <v>0.355673777837012</v>
       </c>
       <c r="D5">
-        <v>0.04426115093572047</v>
+        <v>0.0415828638788085</v>
       </c>
       <c r="E5">
-        <v>0.9523554871529569</v>
+        <v>0.9570187987336709</v>
       </c>
       <c r="F5">
-        <v>1.200240442713351</v>
+        <v>1.044657020650163</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002799720006607664</v>
+        <v>0.00045354147342902</v>
       </c>
       <c r="I5">
-        <v>0.003829286791573239</v>
+        <v>0.002440967001764882</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.7239385985456011</v>
+        <v>0.5963476474216307</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2889924884910471</v>
       </c>
       <c r="M5">
-        <v>1.270258410255991</v>
+        <v>0.1680682367254036</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.225160799739996</v>
       </c>
       <c r="P5">
-        <v>1.292974781964034</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.139316710456036</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9624848626953622</v>
+        <v>0.8652298816401185</v>
       </c>
       <c r="C6">
-        <v>0.3135970164431683</v>
+        <v>0.3535897402784371</v>
       </c>
       <c r="D6">
-        <v>0.04422699755962611</v>
+        <v>0.04154978745560101</v>
       </c>
       <c r="E6">
-        <v>0.9453745506955187</v>
+        <v>0.9500409159716696</v>
       </c>
       <c r="F6">
-        <v>1.193462321727679</v>
+        <v>1.03923449882717</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002531688844431557</v>
+        <v>0.0004205707478037723</v>
       </c>
       <c r="I6">
-        <v>0.00403842950985478</v>
+        <v>0.002634639152169882</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.7204681611137502</v>
+        <v>0.5939065384671878</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2882789046349927</v>
       </c>
       <c r="M6">
-        <v>1.260365838255552</v>
+        <v>0.1670540185422631</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.215775423849436</v>
       </c>
       <c r="P6">
-        <v>1.29151977919576</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.138966905200718</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.010057117337652</v>
+        <v>0.9063998349016629</v>
       </c>
       <c r="C7">
-        <v>0.3298761301529964</v>
+        <v>0.3724865410184748</v>
       </c>
       <c r="D7">
-        <v>0.04445338632309692</v>
+        <v>0.04194087971419869</v>
       </c>
       <c r="E7">
-        <v>0.9936924792687734</v>
+        <v>0.9983346800611912</v>
       </c>
       <c r="F7">
-        <v>1.225427698502344</v>
+        <v>1.063744682488391</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0004579601193981375</v>
+        <v>0.0006649286626121409</v>
       </c>
       <c r="I7">
-        <v>0.003491233418167816</v>
+        <v>0.002309636301987439</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.7331012741849676</v>
+        <v>0.6013828346320551</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2890890960513772</v>
       </c>
       <c r="M7">
-        <v>1.323439359456074</v>
+        <v>0.171165850992562</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.275742594204502</v>
       </c>
       <c r="P7">
-        <v>1.288942213706022</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.131846733583501</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.223141636277461</v>
+        <v>1.090186065624863</v>
       </c>
       <c r="C8">
-        <v>0.4014601380974057</v>
+        <v>0.4559052375905992</v>
       </c>
       <c r="D8">
-        <v>0.04536097938704309</v>
+        <v>0.04356077179776285</v>
       </c>
       <c r="E8">
-        <v>1.208104815544345</v>
+        <v>1.212425071492206</v>
       </c>
       <c r="F8">
-        <v>1.372264562368002</v>
+        <v>1.176506846438855</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.002012452704653001</v>
+        <v>0.002335717957039352</v>
       </c>
       <c r="I8">
-        <v>0.001615490189270652</v>
+        <v>0.00120704282917572</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.7924754688725315</v>
+        <v>0.6370575639953913</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2932965573418755</v>
       </c>
       <c r="M8">
-        <v>1.604289837802327</v>
+        <v>0.1918721283571685</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.54223842916042</v>
       </c>
       <c r="P8">
-        <v>1.281657531299722</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.103624482667605</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.647561237310356</v>
+        <v>1.453620154923954</v>
       </c>
       <c r="C9">
-        <v>0.5441595057501729</v>
+        <v>0.6229136784110381</v>
       </c>
       <c r="D9">
-        <v>0.04679304586174826</v>
+        <v>0.04642369503468302</v>
       </c>
       <c r="E9">
-        <v>1.634639768254559</v>
+        <v>1.63735922334655</v>
       </c>
       <c r="F9">
-        <v>1.674784892768429</v>
+        <v>1.408584867651072</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.007776101983297479</v>
+        <v>0.008078787506040686</v>
       </c>
       <c r="I9">
-        <v>0.0008424421389987558</v>
+        <v>0.001176286699458018</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.9166178352247627</v>
+        <v>0.7120885054590715</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3015123064869769</v>
       </c>
       <c r="M9">
-        <v>2.163243283429836</v>
+        <v>0.2406050148959906</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.070555364749168</v>
       </c>
       <c r="P9">
-        <v>1.275822108913431</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.054906044778306</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.947244158591133</v>
+        <v>1.709712654580755</v>
       </c>
       <c r="C10">
-        <v>0.6451552648468351</v>
+        <v>0.7409315164015595</v>
       </c>
       <c r="D10">
-        <v>0.04781693514660468</v>
+        <v>0.04896545999794455</v>
       </c>
       <c r="E10">
-        <v>1.853777522857868</v>
+        <v>1.854603898532645</v>
       </c>
       <c r="F10">
-        <v>1.872555438970906</v>
+        <v>1.558511495157433</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01353875840503438</v>
+        <v>0.01364550109785378</v>
       </c>
       <c r="I10">
-        <v>0.002705121164973789</v>
+        <v>0.003085462808162021</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.9917902182019915</v>
+        <v>0.7548350903028833</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3017157217577378</v>
       </c>
       <c r="M10">
-        <v>2.557677492365627</v>
+        <v>0.2755264007058145</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.442518605010122</v>
       </c>
       <c r="P10">
-        <v>1.253338249392556</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.007996614176562</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.979073416480276</v>
+        <v>1.748584669217706</v>
       </c>
       <c r="C11">
-        <v>0.6214393370319726</v>
+        <v>0.7112925158269263</v>
       </c>
       <c r="D11">
-        <v>0.05140296542212042</v>
+        <v>0.05611704698260311</v>
       </c>
       <c r="E11">
-        <v>1.185264715490305</v>
+        <v>1.185730426297908</v>
       </c>
       <c r="F11">
-        <v>1.723119331969272</v>
+        <v>1.434055634237055</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0299387077369353</v>
+        <v>0.03000955963319285</v>
       </c>
       <c r="I11">
-        <v>0.003636558634878106</v>
+        <v>0.004100284193624404</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.8894466573752595</v>
+        <v>0.6756962669787967</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2668081203938186</v>
       </c>
       <c r="M11">
-        <v>2.558539412399654</v>
+        <v>0.2523183438728651</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.447752429798186</v>
       </c>
       <c r="P11">
-        <v>1.097336545939989</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8974317807868104</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.948100365932078</v>
+        <v>1.732182533414715</v>
       </c>
       <c r="C12">
-        <v>0.5791533610750719</v>
+        <v>0.6606051569960414</v>
       </c>
       <c r="D12">
-        <v>0.05604893678405176</v>
+        <v>0.06304167061367849</v>
       </c>
       <c r="E12">
-        <v>0.7050895719321062</v>
+        <v>0.70556495680637</v>
       </c>
       <c r="F12">
-        <v>1.567907851258312</v>
+        <v>1.307772097849835</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06662400192125517</v>
+        <v>0.0667103075732598</v>
       </c>
       <c r="I12">
-        <v>0.00353153325940081</v>
+        <v>0.004017228750403667</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.7974821229818687</v>
+        <v>0.6078338270307526</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2407957352381409</v>
       </c>
       <c r="M12">
-        <v>2.478921731977266</v>
+        <v>0.227738537978766</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.376305457198697</v>
       </c>
       <c r="P12">
-        <v>0.9909846640773523</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.829641301021276</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.861590210810817</v>
+        <v>1.667413775486978</v>
       </c>
       <c r="C13">
-        <v>0.5227388632069392</v>
+        <v>0.5935363711419086</v>
       </c>
       <c r="D13">
-        <v>0.06164095174239392</v>
+        <v>0.07009856800948455</v>
       </c>
       <c r="E13">
-        <v>0.3429676602966509</v>
+        <v>0.3435371946702404</v>
       </c>
       <c r="F13">
-        <v>1.392368238168061</v>
+        <v>1.166538703868</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1203745597652244</v>
+        <v>0.1205036682325016</v>
       </c>
       <c r="I13">
-        <v>0.002982200606544971</v>
+        <v>0.003508977887316078</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.7027449116944027</v>
+        <v>0.5400608892755727</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2177344056563015</v>
       </c>
       <c r="M13">
-        <v>2.33080025857808</v>
+        <v>0.1994174723055906</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.239841826889517</v>
       </c>
       <c r="P13">
-        <v>0.9097972623303292</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7851020983889185</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.775487986595152</v>
+        <v>1.599649771924987</v>
       </c>
       <c r="C14">
-        <v>0.4779241680903965</v>
+        <v>0.5404002044170682</v>
       </c>
       <c r="D14">
-        <v>0.06617522165079492</v>
+        <v>0.07523776291439788</v>
       </c>
       <c r="E14">
-        <v>0.1614462784020887</v>
+        <v>0.1620311850545875</v>
       </c>
       <c r="F14">
-        <v>1.260982096303692</v>
+        <v>1.061212872004006</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.168422437971671</v>
+        <v>0.1685859496656832</v>
       </c>
       <c r="I14">
-        <v>0.002548975230777017</v>
+        <v>0.00310967066405432</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.6354654689831847</v>
+        <v>0.4926586292477637</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2026316800369408</v>
       </c>
       <c r="M14">
-        <v>2.196918752089317</v>
+        <v>0.1782210121052685</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.115549774758989</v>
       </c>
       <c r="P14">
-        <v>0.8655330209190737</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7650550820037587</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.741510067959183</v>
+        <v>1.571744580482971</v>
       </c>
       <c r="C15">
-        <v>0.4644124744175144</v>
+        <v>0.5243836540497</v>
       </c>
       <c r="D15">
-        <v>0.06729253897280074</v>
+        <v>0.07637517755697587</v>
       </c>
       <c r="E15">
-        <v>0.1261577388044373</v>
+        <v>0.126751625766488</v>
       </c>
       <c r="F15">
-        <v>1.222769231554196</v>
+        <v>1.030751567405915</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1804989319340251</v>
+        <v>0.1806745058027843</v>
       </c>
       <c r="I15">
-        <v>0.002480250614784296</v>
+        <v>0.00306781680221313</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.6169789065823608</v>
+        <v>0.4799078904488709</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1989656264135178</v>
       </c>
       <c r="M15">
-        <v>2.149343706900936</v>
+        <v>0.1719621372965996</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.071071310194242</v>
       </c>
       <c r="P15">
-        <v>0.8575050491060416</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7631087029655887</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.630617943330037</v>
+        <v>1.474680364572635</v>
       </c>
       <c r="C16">
-        <v>0.4349770057954743</v>
+        <v>0.4902119787052186</v>
       </c>
       <c r="D16">
-        <v>0.06546169734383511</v>
+        <v>0.07343640045296951</v>
       </c>
       <c r="E16">
-        <v>0.1223028821088725</v>
+        <v>0.1230831809693562</v>
       </c>
       <c r="F16">
-        <v>1.174626084266748</v>
+        <v>0.9948979615325015</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1661993828884647</v>
+        <v>0.166409529608643</v>
       </c>
       <c r="I16">
-        <v>0.001967705166022071</v>
+        <v>0.002544099192530069</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.6039114324864485</v>
+        <v>0.4742921629669894</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2012666703912949</v>
       </c>
       <c r="M16">
-        <v>2.013300076321116</v>
+        <v>0.1638253193431574</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.941874692262786</v>
       </c>
       <c r="P16">
-        <v>0.8812432637739498</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7880542793610381</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.590822211824587</v>
+        <v>1.43589663140898</v>
       </c>
       <c r="C17">
-        <v>0.4358937898837212</v>
+        <v>0.4918184465994671</v>
       </c>
       <c r="D17">
-        <v>0.06155173650440915</v>
+        <v>0.06842638472459583</v>
       </c>
       <c r="E17">
-        <v>0.2017759444045026</v>
+        <v>0.2028004616099608</v>
       </c>
       <c r="F17">
-        <v>1.206259408980074</v>
+        <v>1.022581588086595</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1278334552833513</v>
+        <v>0.1280550327082608</v>
       </c>
       <c r="I17">
-        <v>0.00183230964176051</v>
+        <v>0.00238437388168844</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.6287780059324177</v>
+        <v>0.4947292263278129</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2112997659066025</v>
       </c>
       <c r="M17">
-        <v>1.979301679871867</v>
+        <v>0.1683607077260376</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.908149719263918</v>
       </c>
       <c r="P17">
-        <v>0.921794416111652</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8174868200231842</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.610559191097337</v>
+        <v>1.445453819579228</v>
       </c>
       <c r="C18">
-        <v>0.4627184632199715</v>
+        <v>0.52420565865242</v>
       </c>
       <c r="D18">
-        <v>0.05612657972853086</v>
+        <v>0.06159220532931897</v>
       </c>
       <c r="E18">
-        <v>0.4242055998492162</v>
+        <v>0.4255907531072936</v>
       </c>
       <c r="F18">
-        <v>1.31647223695397</v>
+        <v>1.113330696415119</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07539341300103786</v>
+        <v>0.07562386273396271</v>
       </c>
       <c r="I18">
-        <v>0.001600478001856587</v>
+        <v>0.002100577423147953</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.6940360392781457</v>
+        <v>0.543724918527289</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2308492934385349</v>
       </c>
       <c r="M18">
-        <v>2.030977037592095</v>
+        <v>0.1853403185069347</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.95435801510402</v>
       </c>
       <c r="P18">
-        <v>0.99048327313686</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8608634321233453</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.670697151323736</v>
+        <v>1.487612358471353</v>
       </c>
       <c r="C19">
-        <v>0.5125841631225683</v>
+        <v>0.5835295506111038</v>
       </c>
       <c r="D19">
-        <v>0.0513331868395035</v>
+        <v>0.0550709840387924</v>
       </c>
       <c r="E19">
-        <v>0.8421968718566717</v>
+        <v>0.8439300142355393</v>
       </c>
       <c r="F19">
-        <v>1.480165499056284</v>
+        <v>1.246142532377178</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03180631391087729</v>
+        <v>0.03204500383490938</v>
       </c>
       <c r="I19">
-        <v>0.00183859151667054</v>
+        <v>0.002381243649347553</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.7859473750211023</v>
+        <v>0.610810232443626</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.256188581545068</v>
       </c>
       <c r="M19">
-        <v>2.146658912333862</v>
+        <v>0.2105291257182031</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.060339896701663</v>
       </c>
       <c r="P19">
-        <v>1.083316202685729</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9175576960952512</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.856243925775402</v>
+        <v>1.631862282460247</v>
       </c>
       <c r="C20">
-        <v>0.6223983346794171</v>
+        <v>0.7136513950903804</v>
       </c>
       <c r="D20">
-        <v>0.04760354643273423</v>
+        <v>0.04855770350801691</v>
       </c>
       <c r="E20">
-        <v>1.791543520641923</v>
+        <v>1.792940176390303</v>
       </c>
       <c r="F20">
-        <v>1.804112713505162</v>
+        <v>1.505177882702768</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.01181795029505617</v>
+        <v>0.01199243372603576</v>
       </c>
       <c r="I20">
-        <v>0.002760445124883049</v>
+        <v>0.003324918380733344</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.9600237926917785</v>
+        <v>0.7340861346987282</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2982636843936177</v>
       </c>
       <c r="M20">
-        <v>2.447085169221623</v>
+        <v>0.2623976509810575</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.338514612966208</v>
       </c>
       <c r="P20">
-        <v>1.246529539139217</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.011394987779134</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.106747109425498</v>
+        <v>1.843172630477284</v>
       </c>
       <c r="C21">
-        <v>0.7136769949472352</v>
+        <v>0.8207407250688448</v>
       </c>
       <c r="D21">
-        <v>0.04801927291082819</v>
+        <v>0.04961013633947076</v>
       </c>
       <c r="E21">
-        <v>2.116052257061028</v>
+        <v>2.115591715697263</v>
       </c>
       <c r="F21">
-        <v>2.003487073824672</v>
+        <v>1.65842155309727</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01775514746038898</v>
+        <v>0.01769313989215404</v>
       </c>
       <c r="I21">
-        <v>0.005020289860985905</v>
+        <v>0.005383752453706592</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.044760183801742</v>
+        <v>0.7863991434865625</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3051867535875132</v>
       </c>
       <c r="M21">
-        <v>2.784597798709001</v>
+        <v>0.2980537657182509</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.65540526354016</v>
       </c>
       <c r="P21">
-        <v>1.259650223306252</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.9949693003197027</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.270264544038014</v>
+        <v>1.981477885308067</v>
       </c>
       <c r="C22">
-        <v>0.7682447434654023</v>
+        <v>0.8849587386003179</v>
       </c>
       <c r="D22">
-        <v>0.04833563854668554</v>
+        <v>0.05044571169560541</v>
       </c>
       <c r="E22">
-        <v>2.279265636729079</v>
+        <v>2.277381644635412</v>
       </c>
       <c r="F22">
-        <v>2.127738124798341</v>
+        <v>1.753819917333885</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02189988699063594</v>
+        <v>0.02163556237243114</v>
       </c>
       <c r="I22">
-        <v>0.00676304360213642</v>
+        <v>0.006796332419374274</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.097445834279597</v>
+        <v>0.8188404386481523</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3086995014751963</v>
       </c>
       <c r="M22">
-        <v>2.998968867292575</v>
+        <v>0.3215356478936542</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.856481454693977</v>
       </c>
       <c r="P22">
-        <v>1.264658849157172</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.9823782803693248</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.187429737842194</v>
+        <v>1.91158527752313</v>
       </c>
       <c r="C23">
-        <v>0.7373379981012818</v>
+        <v>0.8488604974556893</v>
       </c>
       <c r="D23">
-        <v>0.04815948659206981</v>
+        <v>0.0499121046875679</v>
       </c>
       <c r="E23">
-        <v>2.192106528291632</v>
+        <v>2.190991463921819</v>
       </c>
       <c r="F23">
-        <v>2.066987542713264</v>
+        <v>1.707649579173832</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0196554228454191</v>
+        <v>0.01950222213929931</v>
       </c>
       <c r="I23">
-        <v>0.005513864778780686</v>
+        <v>0.005671915489690704</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.073580376467774</v>
+        <v>0.8049201052746611</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3080340828553361</v>
       </c>
       <c r="M23">
-        <v>2.886627962567047</v>
+        <v>0.3103063021904333</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.751085228517212</v>
       </c>
       <c r="P23">
-        <v>1.266443066510931</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.992171532224944</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.867908234319657</v>
+        <v>1.640925591414316</v>
       </c>
       <c r="C24">
-        <v>0.6250663627911024</v>
+        <v>0.7173001276284765</v>
       </c>
       <c r="D24">
-        <v>0.04742405273188233</v>
+        <v>0.04798575384139525</v>
       </c>
       <c r="E24">
-        <v>1.86517763498135</v>
+        <v>1.866552540258951</v>
       </c>
       <c r="F24">
-        <v>1.831183944109</v>
+        <v>1.527475393313608</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0121330733793899</v>
+        <v>0.01230355883891249</v>
       </c>
       <c r="I24">
-        <v>0.002337285008923828</v>
+        <v>0.002800307941167368</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.9774823796991399</v>
+        <v>0.7473298721304715</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.303289886068697</v>
       </c>
       <c r="M24">
-        <v>2.461024369196252</v>
+        <v>0.2673424585858442</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.351166548352779</v>
       </c>
       <c r="P24">
-        <v>1.267099389245374</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.02523801530662</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.525894049705585</v>
+        <v>1.349587564541594</v>
       </c>
       <c r="C25">
-        <v>0.5074734643070542</v>
+        <v>0.5795531714258004</v>
       </c>
       <c r="D25">
-        <v>0.04645207832640086</v>
+        <v>0.04579150735474258</v>
       </c>
       <c r="E25">
-        <v>1.518286849585735</v>
+        <v>1.521572959819679</v>
       </c>
       <c r="F25">
-        <v>1.583443217383532</v>
+        <v>1.337839131305458</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.005875683882205052</v>
+        <v>0.006215363385369543</v>
       </c>
       <c r="I25">
-        <v>0.001071996931588437</v>
+        <v>0.001370043754162609</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.8762787904412477</v>
+        <v>0.6864792264650958</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2974932743026812</v>
       </c>
       <c r="M25">
-        <v>2.007968692056465</v>
+        <v>0.2247559109837312</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.924120031881671</v>
       </c>
       <c r="P25">
-        <v>1.270178602100856</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.062859877026675</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
